--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32590.69519457366</v>
+        <v>6485548.343720159</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32590.69519457366</v>
+        <v>6485548.343720159</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10474.75262668279</v>
+        <v>628485.1576009672</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10474.75262668279</v>
+        <v>628485.1576009672</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112388035.0442</v>
+        <v>45222204.13868891</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9841.415046667626</v>
+        <v>1039681.740728331</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18918.46148531584</v>
+        <v>1952730.094969462</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27995.50792396404</v>
+        <v>2865778.449210593</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37547.3735591967</v>
+        <v>3748450.020834345</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47099.23919442933</v>
+        <v>4631121.592458097</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56296.76669058692</v>
+        <v>5544187.929193456</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65494.2038224519</v>
+        <v>6457236.283434584</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74691.64095431688</v>
+        <v>7370284.637675712</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84243.41622525694</v>
+        <v>8252938.226805231</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93795.28186048959</v>
+        <v>9135609.798428977</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102992.8093566472</v>
+        <v>10048676.13516434</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112190.2464885121</v>
+        <v>10961724.48940548</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121387.6836203771</v>
+        <v>11874772.84364661</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130939.4588913171</v>
+        <v>12757426.43277614</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140491.3245265498</v>
+        <v>13640098.0043999</v>
       </c>
     </row>
   </sheetData>
